--- a/data-raw/Copy of matadata_mmu_pivoted_AMLmice.YK.xlsx
+++ b/data-raw/Copy of matadata_mmu_pivoted_AMLmice.YK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domeally/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAEE93B-651F-A344-A63C-3953787D6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{7BAEE93B-651F-A344-A63C-3953787D6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1CA1F5B-C6CE-4C30-BBC1-549C549AC929}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="44620" windowHeight="24300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29318" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29322" uniqueCount="715">
   <si>
     <t>Helper</t>
   </si>
@@ -1742,6 +1741,9 @@
     <t>COHP_43397</t>
   </si>
   <si>
+    <t>2021-1-11</t>
+  </si>
+  <si>
     <t>COHP_43398</t>
   </si>
   <si>
@@ -2181,9 +2183,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2255,7 +2254,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3031,8 +3030,8 @@
   <dimension ref="A1:BD554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G476" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K560" sqref="K560"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G418" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K438" sqref="K438"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -71976,8 +71975,8 @@
       <c r="G404" t="s">
         <v>60</v>
       </c>
-      <c r="H404" s="6">
-        <v>44179</v>
+      <c r="H404" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="I404" t="s">
         <v>60</v>
@@ -72150,8 +72149,8 @@
       <c r="H405" t="s">
         <v>60</v>
       </c>
-      <c r="I405" s="6">
-        <v>44193</v>
+      <c r="I405" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="J405" t="s">
         <v>60</v>
@@ -74370,8 +74369,8 @@
       <c r="G418" t="s">
         <v>60</v>
       </c>
-      <c r="H418" s="6">
-        <v>44179</v>
+      <c r="H418" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="I418" t="s">
         <v>60</v>
@@ -77628,8 +77627,8 @@
       <c r="J437" t="s">
         <v>60</v>
       </c>
-      <c r="K437" s="6">
-        <v>44207</v>
+      <c r="K437" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="L437" t="s">
         <v>60</v>
@@ -77776,7 +77775,7 @@
         <v>43398</v>
       </c>
       <c r="C438" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D438" t="s">
         <v>462</v>
@@ -77947,7 +77946,7 @@
         <v>43399</v>
       </c>
       <c r="C439" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D439" t="s">
         <v>462</v>
@@ -78118,7 +78117,7 @@
         <v>43400</v>
       </c>
       <c r="C440" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D440" t="s">
         <v>462</v>
@@ -78289,7 +78288,7 @@
         <v>43401</v>
       </c>
       <c r="C441" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D441" t="s">
         <v>462</v>
@@ -78460,7 +78459,7 @@
         <v>43402</v>
       </c>
       <c r="C442" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D442" t="s">
         <v>462</v>
@@ -78631,7 +78630,7 @@
         <v>43403</v>
       </c>
       <c r="C443" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D443" t="s">
         <v>462</v>
@@ -78802,7 +78801,7 @@
         <v>43404</v>
       </c>
       <c r="C444" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D444" t="s">
         <v>462</v>
@@ -78973,7 +78972,7 @@
         <v>43405</v>
       </c>
       <c r="C445" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D445" t="s">
         <v>462</v>
@@ -79144,7 +79143,7 @@
         <v>43407</v>
       </c>
       <c r="C446" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D446" t="s">
         <v>462</v>
@@ -79315,7 +79314,7 @@
         <v>43442</v>
       </c>
       <c r="C447" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D447" t="s">
         <v>462</v>
@@ -79486,7 +79485,7 @@
         <v>43443</v>
       </c>
       <c r="C448" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D448" t="s">
         <v>462</v>
@@ -79657,7 +79656,7 @@
         <v>43444</v>
       </c>
       <c r="C449" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D449" t="s">
         <v>462</v>
@@ -79828,7 +79827,7 @@
         <v>43445</v>
       </c>
       <c r="C450" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D450" t="s">
         <v>462</v>
@@ -79999,7 +79998,7 @@
         <v>43446</v>
       </c>
       <c r="C451" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D451" t="s">
         <v>462</v>
@@ -80170,7 +80169,7 @@
         <v>43447</v>
       </c>
       <c r="C452" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D452" t="s">
         <v>462</v>
@@ -80341,7 +80340,7 @@
         <v>43448</v>
       </c>
       <c r="C453" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D453" t="s">
         <v>462</v>
@@ -80512,7 +80511,7 @@
         <v>43449</v>
       </c>
       <c r="C454" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D454" t="s">
         <v>462</v>
@@ -80683,7 +80682,7 @@
         <v>43450</v>
       </c>
       <c r="C455" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D455" t="s">
         <v>462</v>
@@ -80854,7 +80853,7 @@
         <v>43451</v>
       </c>
       <c r="C456" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D456" t="s">
         <v>462</v>
@@ -81025,7 +81024,7 @@
         <v>43452</v>
       </c>
       <c r="C457" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D457" t="s">
         <v>462</v>
@@ -81196,7 +81195,7 @@
         <v>43453</v>
       </c>
       <c r="C458" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D458" t="s">
         <v>462</v>
@@ -81367,7 +81366,7 @@
         <v>43454</v>
       </c>
       <c r="C459" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D459" t="s">
         <v>462</v>
@@ -81538,7 +81537,7 @@
         <v>43455</v>
       </c>
       <c r="C460" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D460" t="s">
         <v>462</v>
@@ -81709,7 +81708,7 @@
         <v>43456</v>
       </c>
       <c r="C461" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D461" t="s">
         <v>462</v>
@@ -81880,7 +81879,7 @@
         <v>43635</v>
       </c>
       <c r="C462" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D462" t="s">
         <v>462</v>
@@ -82051,7 +82050,7 @@
         <v>43636</v>
       </c>
       <c r="C463" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D463" t="s">
         <v>462</v>
@@ -82168,7 +82167,7 @@
         <v>60</v>
       </c>
       <c r="AP463" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AQ463" t="s">
         <v>60</v>
@@ -82222,7 +82221,7 @@
         <v>45067</v>
       </c>
       <c r="C464" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D464" t="s">
         <v>494</v>
@@ -82342,7 +82341,7 @@
         <v>60</v>
       </c>
       <c r="AQ464" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AR464" t="s">
         <v>60</v>
@@ -82393,7 +82392,7 @@
         <v>45068</v>
       </c>
       <c r="C465" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D465" t="s">
         <v>494</v>
@@ -82516,7 +82515,7 @@
         <v>60</v>
       </c>
       <c r="AR465" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AS465" t="s">
         <v>60</v>
@@ -82564,7 +82563,7 @@
         <v>45069</v>
       </c>
       <c r="C466" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D466" t="s">
         <v>494</v>
@@ -82690,7 +82689,7 @@
         <v>60</v>
       </c>
       <c r="AS466" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AT466" t="s">
         <v>60</v>
@@ -82735,7 +82734,7 @@
         <v>45070</v>
       </c>
       <c r="C467" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D467" t="s">
         <v>494</v>
@@ -82906,7 +82905,7 @@
         <v>45071</v>
       </c>
       <c r="C468" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D468" t="s">
         <v>494</v>
@@ -83038,7 +83037,7 @@
         <v>60</v>
       </c>
       <c r="AU468" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AV468" t="s">
         <v>60</v>
@@ -83077,7 +83076,7 @@
         <v>45072</v>
       </c>
       <c r="C469" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D469" t="s">
         <v>494</v>
@@ -83128,7 +83127,7 @@
         <v>60</v>
       </c>
       <c r="T469" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="U469" t="s">
         <v>60</v>
@@ -83248,10 +83247,10 @@
         <v>45955</v>
       </c>
       <c r="C470" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D470" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E470">
         <v>4498</v>
@@ -83260,7 +83259,7 @@
         <v>58</v>
       </c>
       <c r="G470" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H470" t="s">
         <v>60</v>
@@ -83419,10 +83418,10 @@
         <v>45956</v>
       </c>
       <c r="C471" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D471" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E471">
         <v>4498</v>
@@ -83431,7 +83430,7 @@
         <v>87</v>
       </c>
       <c r="G471" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H471" t="s">
         <v>60</v>
@@ -83590,19 +83589,19 @@
         <v>45957</v>
       </c>
       <c r="C472" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D472" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E472">
         <v>4498</v>
       </c>
       <c r="F472" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G472" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H472" t="s">
         <v>60</v>
@@ -83761,10 +83760,10 @@
         <v>47544</v>
       </c>
       <c r="C473" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D473" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E473">
         <v>4501</v>
@@ -83836,7 +83835,7 @@
         <v>60</v>
       </c>
       <c r="AB473" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC473" t="s">
         <v>60</v>
@@ -83932,10 +83931,10 @@
         <v>47545</v>
       </c>
       <c r="C474" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D474" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E474">
         <v>4501</v>
@@ -84010,7 +84009,7 @@
         <v>60</v>
       </c>
       <c r="AC474" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD474" t="s">
         <v>60</v>
@@ -84103,10 +84102,10 @@
         <v>47546</v>
       </c>
       <c r="C475" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D475" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E475">
         <v>4501</v>
@@ -84184,7 +84183,7 @@
         <v>60</v>
       </c>
       <c r="AD475" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE475" t="s">
         <v>60</v>
@@ -84274,10 +84273,10 @@
         <v>47547</v>
       </c>
       <c r="C476" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D476" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E476">
         <v>4501</v>
@@ -84358,7 +84357,7 @@
         <v>60</v>
       </c>
       <c r="AE476" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF476" t="s">
         <v>60</v>
@@ -84445,10 +84444,10 @@
         <v>47548</v>
       </c>
       <c r="C477" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D477" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E477">
         <v>4501</v>
@@ -84532,7 +84531,7 @@
         <v>60</v>
       </c>
       <c r="AF477" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG477" t="s">
         <v>60</v>
@@ -84616,10 +84615,10 @@
         <v>47549</v>
       </c>
       <c r="C478" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D478" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E478">
         <v>4501</v>
@@ -84706,7 +84705,7 @@
         <v>60</v>
       </c>
       <c r="AG478" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH478" t="s">
         <v>60</v>
@@ -84787,10 +84786,10 @@
         <v>47550</v>
       </c>
       <c r="C479" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D479" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E479">
         <v>4501</v>
@@ -84880,7 +84879,7 @@
         <v>60</v>
       </c>
       <c r="AH479" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI479" t="s">
         <v>60</v>
@@ -84958,10 +84957,10 @@
         <v>47551</v>
       </c>
       <c r="C480" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D480" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E480">
         <v>4501</v>
@@ -85054,7 +85053,7 @@
         <v>60</v>
       </c>
       <c r="AI480" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ480" t="s">
         <v>60</v>
@@ -85129,10 +85128,10 @@
         <v>47552</v>
       </c>
       <c r="C481" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D481" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E481">
         <v>4501</v>
@@ -85228,7 +85227,7 @@
         <v>60</v>
       </c>
       <c r="AJ481" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK481" t="s">
         <v>60</v>
@@ -85300,10 +85299,10 @@
         <v>47553</v>
       </c>
       <c r="C482" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D482" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E482">
         <v>4501</v>
@@ -85402,7 +85401,7 @@
         <v>60</v>
       </c>
       <c r="AK482" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL482" t="s">
         <v>60</v>
@@ -85471,10 +85470,10 @@
         <v>47554</v>
       </c>
       <c r="C483" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D483" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E483">
         <v>4501</v>
@@ -85576,7 +85575,7 @@
         <v>60</v>
       </c>
       <c r="AL483" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM483" t="s">
         <v>60</v>
@@ -85642,10 +85641,10 @@
         <v>47555</v>
       </c>
       <c r="C484" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D484" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E484">
         <v>4501</v>
@@ -85750,7 +85749,7 @@
         <v>60</v>
       </c>
       <c r="AM484" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN484" t="s">
         <v>60</v>
@@ -85813,10 +85812,10 @@
         <v>47556</v>
       </c>
       <c r="C485" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D485" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E485">
         <v>4501</v>
@@ -85924,7 +85923,7 @@
         <v>60</v>
       </c>
       <c r="AN485" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AO485" t="s">
         <v>60</v>
@@ -85984,10 +85983,10 @@
         <v>47572</v>
       </c>
       <c r="C486" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D486" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E486">
         <v>4501</v>
@@ -86035,7 +86034,7 @@
         <v>60</v>
       </c>
       <c r="T486" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="U486" t="s">
         <v>60</v>
@@ -86155,10 +86154,10 @@
         <v>45958</v>
       </c>
       <c r="C487" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D487" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E487">
         <v>4502</v>
@@ -86167,7 +86166,7 @@
         <v>58</v>
       </c>
       <c r="G487" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H487" t="s">
         <v>60</v>
@@ -86326,19 +86325,19 @@
         <v>45959</v>
       </c>
       <c r="C488" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D488" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E488">
         <v>4502</v>
       </c>
       <c r="F488" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G488" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H488" t="s">
         <v>60</v>
@@ -86497,10 +86496,10 @@
         <v>45960</v>
       </c>
       <c r="C489" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D489" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E489">
         <v>4502</v>
@@ -86509,7 +86508,7 @@
         <v>87</v>
       </c>
       <c r="G489" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H489" t="s">
         <v>60</v>
@@ -86668,19 +86667,19 @@
         <v>45961</v>
       </c>
       <c r="C490" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D490" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E490">
         <v>4502</v>
       </c>
       <c r="F490" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G490" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H490" t="s">
         <v>60</v>
@@ -86839,10 +86838,10 @@
         <v>47557</v>
       </c>
       <c r="C491" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D491" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E491">
         <v>4506</v>
@@ -86914,7 +86913,7 @@
         <v>60</v>
       </c>
       <c r="AB491" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC491" t="s">
         <v>60</v>
@@ -87010,10 +87009,10 @@
         <v>47559</v>
       </c>
       <c r="C492" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D492" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E492">
         <v>4506</v>
@@ -87091,7 +87090,7 @@
         <v>60</v>
       </c>
       <c r="AD492" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE492" t="s">
         <v>60</v>
@@ -87181,10 +87180,10 @@
         <v>47560</v>
       </c>
       <c r="C493" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D493" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E493">
         <v>4506</v>
@@ -87265,7 +87264,7 @@
         <v>60</v>
       </c>
       <c r="AE493" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF493" t="s">
         <v>60</v>
@@ -87352,10 +87351,10 @@
         <v>47561</v>
       </c>
       <c r="C494" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D494" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E494">
         <v>4506</v>
@@ -87439,7 +87438,7 @@
         <v>60</v>
       </c>
       <c r="AF494" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG494" t="s">
         <v>60</v>
@@ -87523,10 +87522,10 @@
         <v>47562</v>
       </c>
       <c r="C495" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D495" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E495">
         <v>4506</v>
@@ -87613,7 +87612,7 @@
         <v>60</v>
       </c>
       <c r="AG495" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH495" t="s">
         <v>60</v>
@@ -87694,10 +87693,10 @@
         <v>47563</v>
       </c>
       <c r="C496" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D496" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E496">
         <v>4506</v>
@@ -87787,7 +87786,7 @@
         <v>60</v>
       </c>
       <c r="AH496" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI496" t="s">
         <v>60</v>
@@ -87865,10 +87864,10 @@
         <v>47564</v>
       </c>
       <c r="C497" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D497" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E497">
         <v>4506</v>
@@ -87961,7 +87960,7 @@
         <v>60</v>
       </c>
       <c r="AI497" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ497" t="s">
         <v>60</v>
@@ -88036,10 +88035,10 @@
         <v>47565</v>
       </c>
       <c r="C498" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D498" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E498">
         <v>4506</v>
@@ -88135,7 +88134,7 @@
         <v>60</v>
       </c>
       <c r="AJ498" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK498" t="s">
         <v>60</v>
@@ -88207,10 +88206,10 @@
         <v>47568</v>
       </c>
       <c r="C499" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D499" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E499">
         <v>4506</v>
@@ -88285,7 +88284,7 @@
         <v>60</v>
       </c>
       <c r="AC499" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD499" t="s">
         <v>60</v>
@@ -88378,10 +88377,10 @@
         <v>47570</v>
       </c>
       <c r="C500" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D500" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E500">
         <v>4506</v>
@@ -88480,7 +88479,7 @@
         <v>60</v>
       </c>
       <c r="AK500" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL500" t="s">
         <v>60</v>
@@ -88549,10 +88548,10 @@
         <v>47571</v>
       </c>
       <c r="C501" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D501" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E501">
         <v>4506</v>
@@ -88597,7 +88596,7 @@
         <v>60</v>
       </c>
       <c r="S501" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T501" t="s">
         <v>60</v>
@@ -88720,10 +88719,10 @@
         <v>47573</v>
       </c>
       <c r="C502" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D502" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E502">
         <v>4506</v>
@@ -88771,7 +88770,7 @@
         <v>60</v>
       </c>
       <c r="T502" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="U502" t="s">
         <v>60</v>
@@ -88891,10 +88890,10 @@
         <v>47574</v>
       </c>
       <c r="C503" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D503" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E503">
         <v>4510</v>
@@ -88942,7 +88941,7 @@
         <v>60</v>
       </c>
       <c r="T503" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="U503" t="s">
         <v>60</v>
@@ -89062,10 +89061,10 @@
         <v>47575</v>
       </c>
       <c r="C504" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D504" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E504">
         <v>4510</v>
@@ -89137,7 +89136,7 @@
         <v>60</v>
       </c>
       <c r="AB504" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC504" t="s">
         <v>60</v>
@@ -89233,10 +89232,10 @@
         <v>47576</v>
       </c>
       <c r="C505" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D505" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E505">
         <v>4510</v>
@@ -89311,7 +89310,7 @@
         <v>60</v>
       </c>
       <c r="AC505" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD505" t="s">
         <v>60</v>
@@ -89404,10 +89403,10 @@
         <v>47577</v>
       </c>
       <c r="C506" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D506" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E506">
         <v>4510</v>
@@ -89485,7 +89484,7 @@
         <v>60</v>
       </c>
       <c r="AD506" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE506" t="s">
         <v>60</v>
@@ -89575,10 +89574,10 @@
         <v>47578</v>
       </c>
       <c r="C507" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D507" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E507">
         <v>4510</v>
@@ -89659,7 +89658,7 @@
         <v>60</v>
       </c>
       <c r="AE507" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF507" t="s">
         <v>60</v>
@@ -89746,10 +89745,10 @@
         <v>47579</v>
       </c>
       <c r="C508" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D508" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E508">
         <v>4510</v>
@@ -89833,7 +89832,7 @@
         <v>60</v>
       </c>
       <c r="AF508" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG508" t="s">
         <v>60</v>
@@ -89917,10 +89916,10 @@
         <v>47580</v>
       </c>
       <c r="C509" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D509" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E509">
         <v>4510</v>
@@ -90007,7 +90006,7 @@
         <v>60</v>
       </c>
       <c r="AG509" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH509" t="s">
         <v>60</v>
@@ -90088,10 +90087,10 @@
         <v>47581</v>
       </c>
       <c r="C510" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D510" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E510">
         <v>4510</v>
@@ -90181,7 +90180,7 @@
         <v>60</v>
       </c>
       <c r="AH510" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI510" t="s">
         <v>60</v>
@@ -90259,10 +90258,10 @@
         <v>47582</v>
       </c>
       <c r="C511" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D511" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E511">
         <v>4510</v>
@@ -90355,7 +90354,7 @@
         <v>60</v>
       </c>
       <c r="AI511" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ511" t="s">
         <v>60</v>
@@ -90430,10 +90429,10 @@
         <v>47583</v>
       </c>
       <c r="C512" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D512" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E512">
         <v>4510</v>
@@ -90529,7 +90528,7 @@
         <v>60</v>
       </c>
       <c r="AJ512" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK512" t="s">
         <v>60</v>
@@ -90601,10 +90600,10 @@
         <v>45948</v>
       </c>
       <c r="C513" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D513" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E513">
         <v>4512</v>
@@ -90613,7 +90612,7 @@
         <v>58</v>
       </c>
       <c r="G513" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H513" t="s">
         <v>60</v>
@@ -90772,10 +90771,10 @@
         <v>45949</v>
       </c>
       <c r="C514" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D514" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E514">
         <v>4512</v>
@@ -90784,7 +90783,7 @@
         <v>87</v>
       </c>
       <c r="G514" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H514" t="s">
         <v>60</v>
@@ -90943,19 +90942,19 @@
         <v>45950</v>
       </c>
       <c r="C515" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D515" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E515">
         <v>4512</v>
       </c>
       <c r="F515" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G515" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H515" t="s">
         <v>60</v>
@@ -91114,10 +91113,10 @@
         <v>45941</v>
       </c>
       <c r="C516" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D516" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E516">
         <v>4520</v>
@@ -91126,7 +91125,7 @@
         <v>58</v>
       </c>
       <c r="G516" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H516" t="s">
         <v>60</v>
@@ -91285,10 +91284,10 @@
         <v>45942</v>
       </c>
       <c r="C517" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D517" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E517">
         <v>4520</v>
@@ -91297,7 +91296,7 @@
         <v>87</v>
       </c>
       <c r="G517" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H517" t="s">
         <v>60</v>
@@ -91456,19 +91455,19 @@
         <v>45943</v>
       </c>
       <c r="C518" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D518" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E518">
         <v>4520</v>
       </c>
       <c r="F518" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G518" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H518" t="s">
         <v>60</v>
@@ -91627,10 +91626,10 @@
         <v>45951</v>
       </c>
       <c r="C519" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D519" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E519">
         <v>4521</v>
@@ -91639,7 +91638,7 @@
         <v>58</v>
       </c>
       <c r="G519" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H519" t="s">
         <v>60</v>
@@ -91798,19 +91797,19 @@
         <v>45952</v>
       </c>
       <c r="C520" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D520" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E520">
         <v>4521</v>
       </c>
       <c r="F520" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G520" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H520" t="s">
         <v>60</v>
@@ -91969,10 +91968,10 @@
         <v>45953</v>
       </c>
       <c r="C521" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D521" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E521">
         <v>4521</v>
@@ -91981,7 +91980,7 @@
         <v>87</v>
       </c>
       <c r="G521" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H521" t="s">
         <v>60</v>
@@ -92140,19 +92139,19 @@
         <v>45954</v>
       </c>
       <c r="C522" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D522" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E522">
         <v>4521</v>
       </c>
       <c r="F522" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G522" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H522" t="s">
         <v>60</v>
@@ -92311,10 +92310,10 @@
         <v>45944</v>
       </c>
       <c r="C523" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D523" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E523">
         <v>4522</v>
@@ -92323,7 +92322,7 @@
         <v>58</v>
       </c>
       <c r="G523" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H523" t="s">
         <v>60</v>
@@ -92482,19 +92481,19 @@
         <v>45945</v>
       </c>
       <c r="C524" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D524" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E524">
         <v>4522</v>
       </c>
       <c r="F524" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G524" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H524" t="s">
         <v>60</v>
@@ -92653,10 +92652,10 @@
         <v>45946</v>
       </c>
       <c r="C525" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D525" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E525">
         <v>4522</v>
@@ -92665,7 +92664,7 @@
         <v>87</v>
       </c>
       <c r="G525" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H525" t="s">
         <v>60</v>
@@ -92824,19 +92823,19 @@
         <v>45947</v>
       </c>
       <c r="C526" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D526" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E526">
         <v>4522</v>
       </c>
       <c r="F526" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G526" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H526" t="s">
         <v>60</v>
@@ -92995,10 +92994,10 @@
         <v>47584</v>
       </c>
       <c r="C527" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D527" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E527">
         <v>4534</v>
@@ -93010,7 +93009,7 @@
         <v>60</v>
       </c>
       <c r="H527" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M527" t="s">
         <v>60</v>
@@ -93154,10 +93153,10 @@
         <v>47585</v>
       </c>
       <c r="C528" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D528" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E528">
         <v>4534</v>
@@ -93169,7 +93168,7 @@
         <v>60</v>
       </c>
       <c r="I528" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M528" t="s">
         <v>60</v>
@@ -93313,10 +93312,10 @@
         <v>47586</v>
       </c>
       <c r="C529" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D529" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E529">
         <v>4534</v>
@@ -93328,7 +93327,7 @@
         <v>60</v>
       </c>
       <c r="J529" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M529" t="s">
         <v>60</v>
@@ -93472,10 +93471,10 @@
         <v>47587</v>
       </c>
       <c r="C530" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D530" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E530">
         <v>4534</v>
@@ -93487,7 +93486,7 @@
         <v>60</v>
       </c>
       <c r="K530" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M530" t="s">
         <v>60</v>
@@ -93631,10 +93630,10 @@
         <v>47588</v>
       </c>
       <c r="C531" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D531" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E531">
         <v>4534</v>
@@ -93646,7 +93645,7 @@
         <v>60</v>
       </c>
       <c r="L531" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M531" t="s">
         <v>60</v>
@@ -93790,10 +93789,10 @@
         <v>47589</v>
       </c>
       <c r="C532" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D532" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E532">
         <v>4534</v>
@@ -93865,7 +93864,7 @@
         <v>60</v>
       </c>
       <c r="AB532" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AC532" t="s">
         <v>60</v>
@@ -93961,10 +93960,10 @@
         <v>47590</v>
       </c>
       <c r="C533" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D533" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E533">
         <v>4534</v>
@@ -94039,7 +94038,7 @@
         <v>60</v>
       </c>
       <c r="AC533" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD533" t="s">
         <v>60</v>
@@ -94132,10 +94131,10 @@
         <v>47591</v>
       </c>
       <c r="C534" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D534" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E534">
         <v>4534</v>
@@ -94213,7 +94212,7 @@
         <v>60</v>
       </c>
       <c r="AD534" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AE534" t="s">
         <v>60</v>
@@ -94303,10 +94302,10 @@
         <v>47592</v>
       </c>
       <c r="C535" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D535" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E535">
         <v>4534</v>
@@ -94387,7 +94386,7 @@
         <v>60</v>
       </c>
       <c r="AE535" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF535" t="s">
         <v>60</v>
@@ -94474,10 +94473,10 @@
         <v>47593</v>
       </c>
       <c r="C536" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D536" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E536">
         <v>4534</v>
@@ -94561,7 +94560,7 @@
         <v>60</v>
       </c>
       <c r="AF536" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG536" t="s">
         <v>60</v>
@@ -94645,10 +94644,10 @@
         <v>47594</v>
       </c>
       <c r="C537" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D537" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E537">
         <v>4534</v>
@@ -94735,7 +94734,7 @@
         <v>60</v>
       </c>
       <c r="AG537" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH537" t="s">
         <v>60</v>
@@ -94816,10 +94815,10 @@
         <v>47595</v>
       </c>
       <c r="C538" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D538" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E538">
         <v>4534</v>
@@ -94909,7 +94908,7 @@
         <v>60</v>
       </c>
       <c r="AH538" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AI538" t="s">
         <v>60</v>
@@ -94987,10 +94986,10 @@
         <v>47609</v>
       </c>
       <c r="C539" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D539" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E539">
         <v>4534</v>
@@ -95083,7 +95082,7 @@
         <v>60</v>
       </c>
       <c r="AI539" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ539" t="s">
         <v>60</v>
@@ -95158,10 +95157,10 @@
         <v>47611</v>
       </c>
       <c r="C540" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D540" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E540">
         <v>4534</v>
@@ -95209,7 +95208,7 @@
         <v>60</v>
       </c>
       <c r="T540" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="U540" t="s">
         <v>60</v>
@@ -95329,10 +95328,10 @@
         <v>47596</v>
       </c>
       <c r="C541" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D541" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E541">
         <v>4535</v>
@@ -95344,7 +95343,7 @@
         <v>60</v>
       </c>
       <c r="H541" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M541" t="s">
         <v>60</v>
@@ -95488,10 +95487,10 @@
         <v>47597</v>
       </c>
       <c r="C542" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D542" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E542">
         <v>4535</v>
@@ -95503,7 +95502,7 @@
         <v>60</v>
       </c>
       <c r="I542" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M542" t="s">
         <v>60</v>
@@ -95647,10 +95646,10 @@
         <v>47598</v>
       </c>
       <c r="C543" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D543" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E543">
         <v>4535</v>
@@ -95662,7 +95661,7 @@
         <v>60</v>
       </c>
       <c r="J543" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M543" t="s">
         <v>60</v>
@@ -95806,10 +95805,10 @@
         <v>47599</v>
       </c>
       <c r="C544" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D544" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E544">
         <v>4535</v>
@@ -95821,7 +95820,7 @@
         <v>60</v>
       </c>
       <c r="K544" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M544" t="s">
         <v>60</v>
@@ -95965,10 +95964,10 @@
         <v>47600</v>
       </c>
       <c r="C545" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D545" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E545">
         <v>4535</v>
@@ -95980,7 +95979,7 @@
         <v>60</v>
       </c>
       <c r="L545" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M545" t="s">
         <v>60</v>
@@ -96124,10 +96123,10 @@
         <v>47601</v>
       </c>
       <c r="C546" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D546" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E546">
         <v>4535</v>
@@ -96199,7 +96198,7 @@
         <v>60</v>
       </c>
       <c r="AB546" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AC546" t="s">
         <v>60</v>
@@ -96295,10 +96294,10 @@
         <v>47602</v>
       </c>
       <c r="C547" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D547" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E547">
         <v>4535</v>
@@ -96373,7 +96372,7 @@
         <v>60</v>
       </c>
       <c r="AC547" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD547" t="s">
         <v>60</v>
@@ -96466,10 +96465,10 @@
         <v>47603</v>
       </c>
       <c r="C548" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D548" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E548">
         <v>4535</v>
@@ -96547,7 +96546,7 @@
         <v>60</v>
       </c>
       <c r="AD548" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AE548" t="s">
         <v>60</v>
@@ -96637,10 +96636,10 @@
         <v>47604</v>
       </c>
       <c r="C549" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D549" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E549">
         <v>4535</v>
@@ -96721,7 +96720,7 @@
         <v>60</v>
       </c>
       <c r="AE549" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF549" t="s">
         <v>60</v>
@@ -96808,10 +96807,10 @@
         <v>47605</v>
       </c>
       <c r="C550" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D550" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E550">
         <v>4535</v>
@@ -96895,7 +96894,7 @@
         <v>60</v>
       </c>
       <c r="AF550" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG550" t="s">
         <v>60</v>
@@ -96979,10 +96978,10 @@
         <v>47606</v>
       </c>
       <c r="C551" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D551" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E551">
         <v>4535</v>
@@ -97069,7 +97068,7 @@
         <v>60</v>
       </c>
       <c r="AG551" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH551" t="s">
         <v>60</v>
@@ -97150,10 +97149,10 @@
         <v>47607</v>
       </c>
       <c r="C552" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D552" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E552">
         <v>4535</v>
@@ -97243,7 +97242,7 @@
         <v>60</v>
       </c>
       <c r="AH552" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AI552" t="s">
         <v>60</v>
@@ -97321,10 +97320,10 @@
         <v>47608</v>
       </c>
       <c r="C553" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D553" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E553">
         <v>4535</v>
@@ -97417,7 +97416,7 @@
         <v>60</v>
       </c>
       <c r="AI553" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ553" t="s">
         <v>60</v>
@@ -97492,10 +97491,10 @@
         <v>47610</v>
       </c>
       <c r="C554" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D554" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E554">
         <v>4535</v>
@@ -97543,7 +97542,7 @@
         <v>60</v>
       </c>
       <c r="T554" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="U554" t="s">
         <v>60</v>
@@ -97827,6 +97826,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="420e3a7f-c595-41db-8c1c-3e1f5a477a85">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED0043852220D64B8C02AE3539520262" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759936c4292ecbbf1a1a07440a8ca756">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="420e3a7f-c595-41db-8c1c-3e1f5a477a85" xmlns:ns3="00d742dd-1bc5-4727-881e-02108fc4a718" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f878bdbb43869cddb2ba28369d62fab3" ns2:_="" ns3:_="">
     <xsd:import namespace="420e3a7f-c595-41db-8c1c-3e1f5a477a85"/>
@@ -98051,24 +98060,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="420e3a7f-c595-41db-8c1c-3e1f5a477a85">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F5F753-7B6D-42E6-87EE-5B96EE287CF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC4E090-7F2C-461A-8F31-528434FDE697}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670A3420-228A-4E3B-A41B-F215F295AD77}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670A3420-228A-4E3B-A41B-F215F295AD77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC4E090-7F2C-461A-8F31-528434FDE697}"/>
 </file>
--- a/data-raw/Copy of matadata_mmu_pivoted_AMLmice.YK.xlsx
+++ b/data-raw/Copy of matadata_mmu_pivoted_AMLmice.YK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domeally/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{7BAEE93B-651F-A344-A63C-3953787D6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1CA1F5B-C6CE-4C30-BBC1-549C549AC929}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7BAEE93B-651F-A344-A63C-3953787D6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECA1D5B-B29C-45E3-AE9D-211DD53CC767}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="44620" windowHeight="24300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29322" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29322" uniqueCount="714">
   <si>
     <t>Helper</t>
   </si>
@@ -1525,7 +1526,7 @@
     <t>COHP_43423</t>
   </si>
   <si>
-    <t>2021-04-02 (4419)</t>
+    <t>2021-04-02</t>
   </si>
   <si>
     <t>COHP_43194</t>
@@ -1664,9 +1665,6 @@
   </si>
   <si>
     <t>COHP_43424</t>
-  </si>
-  <si>
-    <t>2021-04-02</t>
   </si>
   <si>
     <t>COHP_43426</t>
@@ -3030,8 +3028,8 @@
   <dimension ref="A1:BD554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G418" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K438" sqref="K438"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G372" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C383" sqref="C383"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -68034,7 +68032,7 @@
         <v>462</v>
       </c>
       <c r="E381" s="4">
-        <v>4319</v>
+        <v>4419</v>
       </c>
       <c r="F381" s="4" t="s">
         <v>58</v>
@@ -74235,7 +74233,7 @@
         <v>60</v>
       </c>
       <c r="T417" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="U417" t="s">
         <v>60</v>
@@ -74355,7 +74353,7 @@
         <v>43426</v>
       </c>
       <c r="C418" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D418" t="s">
         <v>462</v>
@@ -74526,7 +74524,7 @@
         <v>43427</v>
       </c>
       <c r="C419" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D419" t="s">
         <v>462</v>
@@ -74697,7 +74695,7 @@
         <v>43428</v>
       </c>
       <c r="C420" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D420" t="s">
         <v>462</v>
@@ -74772,7 +74770,7 @@
         <v>60</v>
       </c>
       <c r="AB420" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AC420" t="s">
         <v>60</v>
@@ -74868,7 +74866,7 @@
         <v>43429</v>
       </c>
       <c r="C421" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D421" t="s">
         <v>462</v>
@@ -75039,7 +75037,7 @@
         <v>43430</v>
       </c>
       <c r="C422" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D422" t="s">
         <v>462</v>
@@ -75120,7 +75118,7 @@
         <v>60</v>
       </c>
       <c r="AD422" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE422" t="s">
         <v>60</v>
@@ -75210,7 +75208,7 @@
         <v>43431</v>
       </c>
       <c r="C423" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D423" t="s">
         <v>462</v>
@@ -75381,7 +75379,7 @@
         <v>43432</v>
       </c>
       <c r="C424" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D424" t="s">
         <v>462</v>
@@ -75552,7 +75550,7 @@
         <v>43433</v>
       </c>
       <c r="C425" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D425" t="s">
         <v>462</v>
@@ -75723,7 +75721,7 @@
         <v>43434</v>
       </c>
       <c r="C426" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D426" t="s">
         <v>462</v>
@@ -75894,7 +75892,7 @@
         <v>43435</v>
       </c>
       <c r="C427" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D427" t="s">
         <v>462</v>
@@ -76065,7 +76063,7 @@
         <v>43436</v>
       </c>
       <c r="C428" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D428" t="s">
         <v>462</v>
@@ -76236,7 +76234,7 @@
         <v>43437</v>
       </c>
       <c r="C429" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D429" t="s">
         <v>462</v>
@@ -76407,7 +76405,7 @@
         <v>43438</v>
       </c>
       <c r="C430" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D430" t="s">
         <v>462</v>
@@ -76578,7 +76576,7 @@
         <v>43439</v>
       </c>
       <c r="C431" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D431" t="s">
         <v>462</v>
@@ -76749,7 +76747,7 @@
         <v>43440</v>
       </c>
       <c r="C432" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D432" t="s">
         <v>462</v>
@@ -76860,7 +76858,7 @@
         <v>60</v>
       </c>
       <c r="AN432" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AO432" t="s">
         <v>60</v>
@@ -76920,7 +76918,7 @@
         <v>43637</v>
       </c>
       <c r="C433" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D433" t="s">
         <v>462</v>
@@ -77034,7 +77032,7 @@
         <v>60</v>
       </c>
       <c r="AO433" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AP433" t="s">
         <v>60</v>
@@ -77091,7 +77089,7 @@
         <v>43394</v>
       </c>
       <c r="C434" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D434" t="s">
         <v>462</v>
@@ -77262,7 +77260,7 @@
         <v>43395</v>
       </c>
       <c r="C435" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D435" t="s">
         <v>462</v>
@@ -77433,7 +77431,7 @@
         <v>43396</v>
       </c>
       <c r="C436" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D436" t="s">
         <v>462</v>
@@ -77454,7 +77452,7 @@
         <v>60</v>
       </c>
       <c r="J436" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K436" t="s">
         <v>60</v>
@@ -77604,7 +77602,7 @@
         <v>43397</v>
       </c>
       <c r="C437" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D437" t="s">
         <v>462</v>
@@ -77628,7 +77626,7 @@
         <v>60</v>
       </c>
       <c r="K437" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L437" t="s">
         <v>60</v>
@@ -77775,7 +77773,7 @@
         <v>43398</v>
       </c>
       <c r="C438" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D438" t="s">
         <v>462</v>
@@ -77946,7 +77944,7 @@
         <v>43399</v>
       </c>
       <c r="C439" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D439" t="s">
         <v>462</v>
@@ -78117,7 +78115,7 @@
         <v>43400</v>
       </c>
       <c r="C440" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D440" t="s">
         <v>462</v>
@@ -78288,7 +78286,7 @@
         <v>43401</v>
       </c>
       <c r="C441" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D441" t="s">
         <v>462</v>
@@ -78459,7 +78457,7 @@
         <v>43402</v>
       </c>
       <c r="C442" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D442" t="s">
         <v>462</v>
@@ -78630,7 +78628,7 @@
         <v>43403</v>
       </c>
       <c r="C443" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D443" t="s">
         <v>462</v>
@@ -78801,7 +78799,7 @@
         <v>43404</v>
       </c>
       <c r="C444" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D444" t="s">
         <v>462</v>
@@ -78972,7 +78970,7 @@
         <v>43405</v>
       </c>
       <c r="C445" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D445" t="s">
         <v>462</v>
@@ -79143,7 +79141,7 @@
         <v>43407</v>
       </c>
       <c r="C446" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D446" t="s">
         <v>462</v>
@@ -79314,7 +79312,7 @@
         <v>43442</v>
       </c>
       <c r="C447" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D447" t="s">
         <v>462</v>
@@ -79485,7 +79483,7 @@
         <v>43443</v>
       </c>
       <c r="C448" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D448" t="s">
         <v>462</v>
@@ -79656,7 +79654,7 @@
         <v>43444</v>
       </c>
       <c r="C449" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D449" t="s">
         <v>462</v>
@@ -79731,7 +79729,7 @@
         <v>60</v>
       </c>
       <c r="AB449" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AC449" t="s">
         <v>60</v>
@@ -79827,7 +79825,7 @@
         <v>43445</v>
       </c>
       <c r="C450" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D450" t="s">
         <v>462</v>
@@ -79998,7 +79996,7 @@
         <v>43446</v>
       </c>
       <c r="C451" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D451" t="s">
         <v>462</v>
@@ -80079,7 +80077,7 @@
         <v>60</v>
       </c>
       <c r="AD451" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE451" t="s">
         <v>60</v>
@@ -80169,7 +80167,7 @@
         <v>43447</v>
       </c>
       <c r="C452" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D452" t="s">
         <v>462</v>
@@ -80340,7 +80338,7 @@
         <v>43448</v>
       </c>
       <c r="C453" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D453" t="s">
         <v>462</v>
@@ -80511,7 +80509,7 @@
         <v>43449</v>
       </c>
       <c r="C454" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D454" t="s">
         <v>462</v>
@@ -80682,7 +80680,7 @@
         <v>43450</v>
       </c>
       <c r="C455" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D455" t="s">
         <v>462</v>
@@ -80853,7 +80851,7 @@
         <v>43451</v>
       </c>
       <c r="C456" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D456" t="s">
         <v>462</v>
@@ -81024,7 +81022,7 @@
         <v>43452</v>
       </c>
       <c r="C457" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D457" t="s">
         <v>462</v>
@@ -81195,7 +81193,7 @@
         <v>43453</v>
       </c>
       <c r="C458" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D458" t="s">
         <v>462</v>
@@ -81366,7 +81364,7 @@
         <v>43454</v>
       </c>
       <c r="C459" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D459" t="s">
         <v>462</v>
@@ -81537,7 +81535,7 @@
         <v>43455</v>
       </c>
       <c r="C460" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D460" t="s">
         <v>462</v>
@@ -81708,7 +81706,7 @@
         <v>43456</v>
       </c>
       <c r="C461" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D461" t="s">
         <v>462</v>
@@ -81819,7 +81817,7 @@
         <v>60</v>
       </c>
       <c r="AN461" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AO461" t="s">
         <v>60</v>
@@ -81879,7 +81877,7 @@
         <v>43635</v>
       </c>
       <c r="C462" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D462" t="s">
         <v>462</v>
@@ -81993,7 +81991,7 @@
         <v>60</v>
       </c>
       <c r="AO462" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AP462" t="s">
         <v>60</v>
@@ -82050,7 +82048,7 @@
         <v>43636</v>
       </c>
       <c r="C463" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D463" t="s">
         <v>462</v>
@@ -82167,7 +82165,7 @@
         <v>60</v>
       </c>
       <c r="AP463" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ463" t="s">
         <v>60</v>
@@ -82221,7 +82219,7 @@
         <v>45067</v>
       </c>
       <c r="C464" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D464" t="s">
         <v>494</v>
@@ -82341,7 +82339,7 @@
         <v>60</v>
       </c>
       <c r="AQ464" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AR464" t="s">
         <v>60</v>
@@ -82392,7 +82390,7 @@
         <v>45068</v>
       </c>
       <c r="C465" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D465" t="s">
         <v>494</v>
@@ -82515,7 +82513,7 @@
         <v>60</v>
       </c>
       <c r="AR465" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AS465" t="s">
         <v>60</v>
@@ -82563,7 +82561,7 @@
         <v>45069</v>
       </c>
       <c r="C466" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D466" t="s">
         <v>494</v>
@@ -82689,7 +82687,7 @@
         <v>60</v>
       </c>
       <c r="AS466" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AT466" t="s">
         <v>60</v>
@@ -82734,7 +82732,7 @@
         <v>45070</v>
       </c>
       <c r="C467" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D467" t="s">
         <v>494</v>
@@ -82905,7 +82903,7 @@
         <v>45071</v>
       </c>
       <c r="C468" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D468" t="s">
         <v>494</v>
@@ -83037,7 +83035,7 @@
         <v>60</v>
       </c>
       <c r="AU468" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AV468" t="s">
         <v>60</v>
@@ -83076,7 +83074,7 @@
         <v>45072</v>
       </c>
       <c r="C469" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D469" t="s">
         <v>494</v>
@@ -83127,7 +83125,7 @@
         <v>60</v>
       </c>
       <c r="T469" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U469" t="s">
         <v>60</v>
@@ -83247,10 +83245,10 @@
         <v>45955</v>
       </c>
       <c r="C470" t="s">
+        <v>607</v>
+      </c>
+      <c r="D470" t="s">
         <v>608</v>
-      </c>
-      <c r="D470" t="s">
-        <v>609</v>
       </c>
       <c r="E470">
         <v>4498</v>
@@ -83259,7 +83257,7 @@
         <v>58</v>
       </c>
       <c r="G470" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H470" t="s">
         <v>60</v>
@@ -83418,10 +83416,10 @@
         <v>45956</v>
       </c>
       <c r="C471" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D471" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E471">
         <v>4498</v>
@@ -83430,7 +83428,7 @@
         <v>87</v>
       </c>
       <c r="G471" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H471" t="s">
         <v>60</v>
@@ -83589,19 +83587,19 @@
         <v>45957</v>
       </c>
       <c r="C472" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D472" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E472">
         <v>4498</v>
       </c>
       <c r="F472" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G472" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H472" t="s">
         <v>60</v>
@@ -83760,10 +83758,10 @@
         <v>47544</v>
       </c>
       <c r="C473" t="s">
+        <v>613</v>
+      </c>
+      <c r="D473" t="s">
         <v>614</v>
-      </c>
-      <c r="D473" t="s">
-        <v>615</v>
       </c>
       <c r="E473">
         <v>4501</v>
@@ -83835,7 +83833,7 @@
         <v>60</v>
       </c>
       <c r="AB473" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AC473" t="s">
         <v>60</v>
@@ -83931,10 +83929,10 @@
         <v>47545</v>
       </c>
       <c r="C474" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D474" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E474">
         <v>4501</v>
@@ -84009,7 +84007,7 @@
         <v>60</v>
       </c>
       <c r="AC474" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AD474" t="s">
         <v>60</v>
@@ -84102,10 +84100,10 @@
         <v>47546</v>
       </c>
       <c r="C475" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D475" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E475">
         <v>4501</v>
@@ -84183,7 +84181,7 @@
         <v>60</v>
       </c>
       <c r="AD475" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AE475" t="s">
         <v>60</v>
@@ -84273,10 +84271,10 @@
         <v>47547</v>
       </c>
       <c r="C476" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D476" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E476">
         <v>4501</v>
@@ -84357,7 +84355,7 @@
         <v>60</v>
       </c>
       <c r="AE476" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF476" t="s">
         <v>60</v>
@@ -84444,10 +84442,10 @@
         <v>47548</v>
       </c>
       <c r="C477" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D477" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E477">
         <v>4501</v>
@@ -84531,7 +84529,7 @@
         <v>60</v>
       </c>
       <c r="AF477" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG477" t="s">
         <v>60</v>
@@ -84615,10 +84613,10 @@
         <v>47549</v>
       </c>
       <c r="C478" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D478" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E478">
         <v>4501</v>
@@ -84705,7 +84703,7 @@
         <v>60</v>
       </c>
       <c r="AG478" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AH478" t="s">
         <v>60</v>
@@ -84786,10 +84784,10 @@
         <v>47550</v>
       </c>
       <c r="C479" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D479" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E479">
         <v>4501</v>
@@ -84879,7 +84877,7 @@
         <v>60</v>
       </c>
       <c r="AH479" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI479" t="s">
         <v>60</v>
@@ -84957,10 +84955,10 @@
         <v>47551</v>
       </c>
       <c r="C480" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D480" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E480">
         <v>4501</v>
@@ -85053,7 +85051,7 @@
         <v>60</v>
       </c>
       <c r="AI480" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ480" t="s">
         <v>60</v>
@@ -85128,10 +85126,10 @@
         <v>47552</v>
       </c>
       <c r="C481" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D481" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E481">
         <v>4501</v>
@@ -85227,7 +85225,7 @@
         <v>60</v>
       </c>
       <c r="AJ481" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AK481" t="s">
         <v>60</v>
@@ -85299,10 +85297,10 @@
         <v>47553</v>
       </c>
       <c r="C482" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D482" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E482">
         <v>4501</v>
@@ -85401,7 +85399,7 @@
         <v>60</v>
       </c>
       <c r="AK482" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL482" t="s">
         <v>60</v>
@@ -85470,10 +85468,10 @@
         <v>47554</v>
       </c>
       <c r="C483" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D483" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E483">
         <v>4501</v>
@@ -85575,7 +85573,7 @@
         <v>60</v>
       </c>
       <c r="AL483" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AM483" t="s">
         <v>60</v>
@@ -85641,10 +85639,10 @@
         <v>47555</v>
       </c>
       <c r="C484" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D484" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E484">
         <v>4501</v>
@@ -85749,7 +85747,7 @@
         <v>60</v>
       </c>
       <c r="AM484" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AN484" t="s">
         <v>60</v>
@@ -85812,10 +85810,10 @@
         <v>47556</v>
       </c>
       <c r="C485" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D485" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E485">
         <v>4501</v>
@@ -85923,7 +85921,7 @@
         <v>60</v>
       </c>
       <c r="AN485" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO485" t="s">
         <v>60</v>
@@ -85983,10 +85981,10 @@
         <v>47572</v>
       </c>
       <c r="C486" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D486" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E486">
         <v>4501</v>
@@ -86034,7 +86032,7 @@
         <v>60</v>
       </c>
       <c r="T486" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U486" t="s">
         <v>60</v>
@@ -86154,10 +86152,10 @@
         <v>45958</v>
       </c>
       <c r="C487" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D487" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E487">
         <v>4502</v>
@@ -86166,7 +86164,7 @@
         <v>58</v>
       </c>
       <c r="G487" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H487" t="s">
         <v>60</v>
@@ -86325,19 +86323,19 @@
         <v>45959</v>
       </c>
       <c r="C488" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D488" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E488">
         <v>4502</v>
       </c>
       <c r="F488" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G488" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H488" t="s">
         <v>60</v>
@@ -86496,10 +86494,10 @@
         <v>45960</v>
       </c>
       <c r="C489" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D489" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E489">
         <v>4502</v>
@@ -86508,7 +86506,7 @@
         <v>87</v>
       </c>
       <c r="G489" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H489" t="s">
         <v>60</v>
@@ -86667,19 +86665,19 @@
         <v>45961</v>
       </c>
       <c r="C490" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D490" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E490">
         <v>4502</v>
       </c>
       <c r="F490" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G490" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H490" t="s">
         <v>60</v>
@@ -86838,10 +86836,10 @@
         <v>47557</v>
       </c>
       <c r="C491" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D491" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E491">
         <v>4506</v>
@@ -86913,7 +86911,7 @@
         <v>60</v>
       </c>
       <c r="AB491" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AC491" t="s">
         <v>60</v>
@@ -87009,10 +87007,10 @@
         <v>47559</v>
       </c>
       <c r="C492" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D492" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E492">
         <v>4506</v>
@@ -87090,7 +87088,7 @@
         <v>60</v>
       </c>
       <c r="AD492" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AE492" t="s">
         <v>60</v>
@@ -87180,10 +87178,10 @@
         <v>47560</v>
       </c>
       <c r="C493" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D493" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E493">
         <v>4506</v>
@@ -87264,7 +87262,7 @@
         <v>60</v>
       </c>
       <c r="AE493" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF493" t="s">
         <v>60</v>
@@ -87351,10 +87349,10 @@
         <v>47561</v>
       </c>
       <c r="C494" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D494" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E494">
         <v>4506</v>
@@ -87438,7 +87436,7 @@
         <v>60</v>
       </c>
       <c r="AF494" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG494" t="s">
         <v>60</v>
@@ -87522,10 +87520,10 @@
         <v>47562</v>
       </c>
       <c r="C495" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D495" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E495">
         <v>4506</v>
@@ -87612,7 +87610,7 @@
         <v>60</v>
       </c>
       <c r="AG495" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AH495" t="s">
         <v>60</v>
@@ -87693,10 +87691,10 @@
         <v>47563</v>
       </c>
       <c r="C496" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D496" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E496">
         <v>4506</v>
@@ -87786,7 +87784,7 @@
         <v>60</v>
       </c>
       <c r="AH496" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI496" t="s">
         <v>60</v>
@@ -87864,10 +87862,10 @@
         <v>47564</v>
       </c>
       <c r="C497" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D497" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E497">
         <v>4506</v>
@@ -87960,7 +87958,7 @@
         <v>60</v>
       </c>
       <c r="AI497" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ497" t="s">
         <v>60</v>
@@ -88035,10 +88033,10 @@
         <v>47565</v>
       </c>
       <c r="C498" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D498" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E498">
         <v>4506</v>
@@ -88134,7 +88132,7 @@
         <v>60</v>
       </c>
       <c r="AJ498" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AK498" t="s">
         <v>60</v>
@@ -88206,10 +88204,10 @@
         <v>47568</v>
       </c>
       <c r="C499" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D499" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E499">
         <v>4506</v>
@@ -88284,7 +88282,7 @@
         <v>60</v>
       </c>
       <c r="AC499" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AD499" t="s">
         <v>60</v>
@@ -88377,10 +88375,10 @@
         <v>47570</v>
       </c>
       <c r="C500" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D500" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E500">
         <v>4506</v>
@@ -88479,7 +88477,7 @@
         <v>60</v>
       </c>
       <c r="AK500" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL500" t="s">
         <v>60</v>
@@ -88548,10 +88546,10 @@
         <v>47571</v>
       </c>
       <c r="C501" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D501" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E501">
         <v>4506</v>
@@ -88596,7 +88594,7 @@
         <v>60</v>
       </c>
       <c r="S501" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T501" t="s">
         <v>60</v>
@@ -88719,10 +88717,10 @@
         <v>47573</v>
       </c>
       <c r="C502" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D502" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E502">
         <v>4506</v>
@@ -88770,7 +88768,7 @@
         <v>60</v>
       </c>
       <c r="T502" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U502" t="s">
         <v>60</v>
@@ -88890,10 +88888,10 @@
         <v>47574</v>
       </c>
       <c r="C503" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D503" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E503">
         <v>4510</v>
@@ -88941,7 +88939,7 @@
         <v>60</v>
       </c>
       <c r="T503" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U503" t="s">
         <v>60</v>
@@ -89061,10 +89059,10 @@
         <v>47575</v>
       </c>
       <c r="C504" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D504" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E504">
         <v>4510</v>
@@ -89136,7 +89134,7 @@
         <v>60</v>
       </c>
       <c r="AB504" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AC504" t="s">
         <v>60</v>
@@ -89232,10 +89230,10 @@
         <v>47576</v>
       </c>
       <c r="C505" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D505" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E505">
         <v>4510</v>
@@ -89310,7 +89308,7 @@
         <v>60</v>
       </c>
       <c r="AC505" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AD505" t="s">
         <v>60</v>
@@ -89403,10 +89401,10 @@
         <v>47577</v>
       </c>
       <c r="C506" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D506" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E506">
         <v>4510</v>
@@ -89484,7 +89482,7 @@
         <v>60</v>
       </c>
       <c r="AD506" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AE506" t="s">
         <v>60</v>
@@ -89574,10 +89572,10 @@
         <v>47578</v>
       </c>
       <c r="C507" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D507" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E507">
         <v>4510</v>
@@ -89658,7 +89656,7 @@
         <v>60</v>
       </c>
       <c r="AE507" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF507" t="s">
         <v>60</v>
@@ -89745,10 +89743,10 @@
         <v>47579</v>
       </c>
       <c r="C508" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D508" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E508">
         <v>4510</v>
@@ -89832,7 +89830,7 @@
         <v>60</v>
       </c>
       <c r="AF508" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG508" t="s">
         <v>60</v>
@@ -89916,10 +89914,10 @@
         <v>47580</v>
       </c>
       <c r="C509" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D509" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E509">
         <v>4510</v>
@@ -90006,7 +90004,7 @@
         <v>60</v>
       </c>
       <c r="AG509" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AH509" t="s">
         <v>60</v>
@@ -90087,10 +90085,10 @@
         <v>47581</v>
       </c>
       <c r="C510" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D510" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E510">
         <v>4510</v>
@@ -90180,7 +90178,7 @@
         <v>60</v>
       </c>
       <c r="AH510" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI510" t="s">
         <v>60</v>
@@ -90258,10 +90256,10 @@
         <v>47582</v>
       </c>
       <c r="C511" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D511" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E511">
         <v>4510</v>
@@ -90354,7 +90352,7 @@
         <v>60</v>
       </c>
       <c r="AI511" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ511" t="s">
         <v>60</v>
@@ -90429,10 +90427,10 @@
         <v>47583</v>
       </c>
       <c r="C512" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D512" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E512">
         <v>4510</v>
@@ -90528,7 +90526,7 @@
         <v>60</v>
       </c>
       <c r="AJ512" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AK512" t="s">
         <v>60</v>
@@ -90600,10 +90598,10 @@
         <v>45948</v>
       </c>
       <c r="C513" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D513" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E513">
         <v>4512</v>
@@ -90612,7 +90610,7 @@
         <v>58</v>
       </c>
       <c r="G513" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H513" t="s">
         <v>60</v>
@@ -90771,10 +90769,10 @@
         <v>45949</v>
       </c>
       <c r="C514" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D514" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E514">
         <v>4512</v>
@@ -90783,7 +90781,7 @@
         <v>87</v>
       </c>
       <c r="G514" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H514" t="s">
         <v>60</v>
@@ -90942,19 +90940,19 @@
         <v>45950</v>
       </c>
       <c r="C515" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D515" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E515">
         <v>4512</v>
       </c>
       <c r="F515" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G515" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H515" t="s">
         <v>60</v>
@@ -91113,10 +91111,10 @@
         <v>45941</v>
       </c>
       <c r="C516" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D516" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E516">
         <v>4520</v>
@@ -91125,7 +91123,7 @@
         <v>58</v>
       </c>
       <c r="G516" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H516" t="s">
         <v>60</v>
@@ -91284,10 +91282,10 @@
         <v>45942</v>
       </c>
       <c r="C517" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D517" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E517">
         <v>4520</v>
@@ -91296,7 +91294,7 @@
         <v>87</v>
       </c>
       <c r="G517" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H517" t="s">
         <v>60</v>
@@ -91455,19 +91453,19 @@
         <v>45943</v>
       </c>
       <c r="C518" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D518" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E518">
         <v>4520</v>
       </c>
       <c r="F518" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G518" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H518" t="s">
         <v>60</v>
@@ -91626,10 +91624,10 @@
         <v>45951</v>
       </c>
       <c r="C519" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D519" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E519">
         <v>4521</v>
@@ -91638,7 +91636,7 @@
         <v>58</v>
       </c>
       <c r="G519" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H519" t="s">
         <v>60</v>
@@ -91797,19 +91795,19 @@
         <v>45952</v>
       </c>
       <c r="C520" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D520" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E520">
         <v>4521</v>
       </c>
       <c r="F520" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G520" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H520" t="s">
         <v>60</v>
@@ -91968,10 +91966,10 @@
         <v>45953</v>
       </c>
       <c r="C521" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D521" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E521">
         <v>4521</v>
@@ -91980,7 +91978,7 @@
         <v>87</v>
       </c>
       <c r="G521" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H521" t="s">
         <v>60</v>
@@ -92139,19 +92137,19 @@
         <v>45954</v>
       </c>
       <c r="C522" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D522" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E522">
         <v>4521</v>
       </c>
       <c r="F522" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G522" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H522" t="s">
         <v>60</v>
@@ -92310,10 +92308,10 @@
         <v>45944</v>
       </c>
       <c r="C523" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D523" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E523">
         <v>4522</v>
@@ -92322,7 +92320,7 @@
         <v>58</v>
       </c>
       <c r="G523" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H523" t="s">
         <v>60</v>
@@ -92481,19 +92479,19 @@
         <v>45945</v>
       </c>
       <c r="C524" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D524" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E524">
         <v>4522</v>
       </c>
       <c r="F524" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G524" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H524" t="s">
         <v>60</v>
@@ -92652,10 +92650,10 @@
         <v>45946</v>
       </c>
       <c r="C525" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D525" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E525">
         <v>4522</v>
@@ -92664,7 +92662,7 @@
         <v>87</v>
       </c>
       <c r="G525" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H525" t="s">
         <v>60</v>
@@ -92823,19 +92821,19 @@
         <v>45947</v>
       </c>
       <c r="C526" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D526" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E526">
         <v>4522</v>
       </c>
       <c r="F526" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G526" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H526" t="s">
         <v>60</v>
@@ -92994,10 +92992,10 @@
         <v>47584</v>
       </c>
       <c r="C527" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D527" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E527">
         <v>4534</v>
@@ -93009,7 +93007,7 @@
         <v>60</v>
       </c>
       <c r="H527" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M527" t="s">
         <v>60</v>
@@ -93153,10 +93151,10 @@
         <v>47585</v>
       </c>
       <c r="C528" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D528" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E528">
         <v>4534</v>
@@ -93168,7 +93166,7 @@
         <v>60</v>
       </c>
       <c r="I528" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M528" t="s">
         <v>60</v>
@@ -93312,10 +93310,10 @@
         <v>47586</v>
       </c>
       <c r="C529" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D529" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E529">
         <v>4534</v>
@@ -93327,7 +93325,7 @@
         <v>60</v>
       </c>
       <c r="J529" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M529" t="s">
         <v>60</v>
@@ -93471,10 +93469,10 @@
         <v>47587</v>
       </c>
       <c r="C530" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D530" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E530">
         <v>4534</v>
@@ -93486,7 +93484,7 @@
         <v>60</v>
       </c>
       <c r="K530" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M530" t="s">
         <v>60</v>
@@ -93630,10 +93628,10 @@
         <v>47588</v>
       </c>
       <c r="C531" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D531" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E531">
         <v>4534</v>
@@ -93645,7 +93643,7 @@
         <v>60</v>
       </c>
       <c r="L531" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M531" t="s">
         <v>60</v>
@@ -93789,10 +93787,10 @@
         <v>47589</v>
       </c>
       <c r="C532" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D532" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E532">
         <v>4534</v>
@@ -93864,7 +93862,7 @@
         <v>60</v>
       </c>
       <c r="AB532" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC532" t="s">
         <v>60</v>
@@ -93960,10 +93958,10 @@
         <v>47590</v>
       </c>
       <c r="C533" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D533" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E533">
         <v>4534</v>
@@ -94038,7 +94036,7 @@
         <v>60</v>
       </c>
       <c r="AC533" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AD533" t="s">
         <v>60</v>
@@ -94131,10 +94129,10 @@
         <v>47591</v>
       </c>
       <c r="C534" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D534" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E534">
         <v>4534</v>
@@ -94212,7 +94210,7 @@
         <v>60</v>
       </c>
       <c r="AD534" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AE534" t="s">
         <v>60</v>
@@ -94302,10 +94300,10 @@
         <v>47592</v>
       </c>
       <c r="C535" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D535" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E535">
         <v>4534</v>
@@ -94386,7 +94384,7 @@
         <v>60</v>
       </c>
       <c r="AE535" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF535" t="s">
         <v>60</v>
@@ -94473,10 +94471,10 @@
         <v>47593</v>
       </c>
       <c r="C536" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D536" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E536">
         <v>4534</v>
@@ -94560,7 +94558,7 @@
         <v>60</v>
       </c>
       <c r="AF536" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG536" t="s">
         <v>60</v>
@@ -94644,10 +94642,10 @@
         <v>47594</v>
       </c>
       <c r="C537" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D537" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E537">
         <v>4534</v>
@@ -94734,7 +94732,7 @@
         <v>60</v>
       </c>
       <c r="AG537" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AH537" t="s">
         <v>60</v>
@@ -94815,10 +94813,10 @@
         <v>47595</v>
       </c>
       <c r="C538" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D538" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E538">
         <v>4534</v>
@@ -94908,7 +94906,7 @@
         <v>60</v>
       </c>
       <c r="AH538" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AI538" t="s">
         <v>60</v>
@@ -94986,10 +94984,10 @@
         <v>47609</v>
       </c>
       <c r="C539" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D539" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E539">
         <v>4534</v>
@@ -95082,7 +95080,7 @@
         <v>60</v>
       </c>
       <c r="AI539" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ539" t="s">
         <v>60</v>
@@ -95157,10 +95155,10 @@
         <v>47611</v>
       </c>
       <c r="C540" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D540" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E540">
         <v>4534</v>
@@ -95208,7 +95206,7 @@
         <v>60</v>
       </c>
       <c r="T540" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U540" t="s">
         <v>60</v>
@@ -95328,10 +95326,10 @@
         <v>47596</v>
       </c>
       <c r="C541" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D541" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E541">
         <v>4535</v>
@@ -95343,7 +95341,7 @@
         <v>60</v>
       </c>
       <c r="H541" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M541" t="s">
         <v>60</v>
@@ -95487,10 +95485,10 @@
         <v>47597</v>
       </c>
       <c r="C542" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D542" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E542">
         <v>4535</v>
@@ -95502,7 +95500,7 @@
         <v>60</v>
       </c>
       <c r="I542" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M542" t="s">
         <v>60</v>
@@ -95646,10 +95644,10 @@
         <v>47598</v>
       </c>
       <c r="C543" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D543" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E543">
         <v>4535</v>
@@ -95661,7 +95659,7 @@
         <v>60</v>
       </c>
       <c r="J543" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M543" t="s">
         <v>60</v>
@@ -95805,10 +95803,10 @@
         <v>47599</v>
       </c>
       <c r="C544" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D544" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E544">
         <v>4535</v>
@@ -95820,7 +95818,7 @@
         <v>60</v>
       </c>
       <c r="K544" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M544" t="s">
         <v>60</v>
@@ -95964,10 +95962,10 @@
         <v>47600</v>
       </c>
       <c r="C545" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D545" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E545">
         <v>4535</v>
@@ -95979,7 +95977,7 @@
         <v>60</v>
       </c>
       <c r="L545" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M545" t="s">
         <v>60</v>
@@ -96123,10 +96121,10 @@
         <v>47601</v>
       </c>
       <c r="C546" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D546" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E546">
         <v>4535</v>
@@ -96198,7 +96196,7 @@
         <v>60</v>
       </c>
       <c r="AB546" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC546" t="s">
         <v>60</v>
@@ -96294,10 +96292,10 @@
         <v>47602</v>
       </c>
       <c r="C547" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D547" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E547">
         <v>4535</v>
@@ -96372,7 +96370,7 @@
         <v>60</v>
       </c>
       <c r="AC547" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AD547" t="s">
         <v>60</v>
@@ -96465,10 +96463,10 @@
         <v>47603</v>
       </c>
       <c r="C548" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D548" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E548">
         <v>4535</v>
@@ -96546,7 +96544,7 @@
         <v>60</v>
       </c>
       <c r="AD548" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AE548" t="s">
         <v>60</v>
@@ -96636,10 +96634,10 @@
         <v>47604</v>
       </c>
       <c r="C549" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D549" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E549">
         <v>4535</v>
@@ -96720,7 +96718,7 @@
         <v>60</v>
       </c>
       <c r="AE549" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF549" t="s">
         <v>60</v>
@@ -96807,10 +96805,10 @@
         <v>47605</v>
       </c>
       <c r="C550" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D550" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E550">
         <v>4535</v>
@@ -96894,7 +96892,7 @@
         <v>60</v>
       </c>
       <c r="AF550" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG550" t="s">
         <v>60</v>
@@ -96978,10 +96976,10 @@
         <v>47606</v>
       </c>
       <c r="C551" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D551" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E551">
         <v>4535</v>
@@ -97068,7 +97066,7 @@
         <v>60</v>
       </c>
       <c r="AG551" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AH551" t="s">
         <v>60</v>
@@ -97149,10 +97147,10 @@
         <v>47607</v>
       </c>
       <c r="C552" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D552" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E552">
         <v>4535</v>
@@ -97242,7 +97240,7 @@
         <v>60</v>
       </c>
       <c r="AH552" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AI552" t="s">
         <v>60</v>
@@ -97320,10 +97318,10 @@
         <v>47608</v>
       </c>
       <c r="C553" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D553" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E553">
         <v>4535</v>
@@ -97416,7 +97414,7 @@
         <v>60</v>
       </c>
       <c r="AI553" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ553" t="s">
         <v>60</v>
@@ -97491,10 +97489,10 @@
         <v>47610</v>
       </c>
       <c r="C554" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D554" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E554">
         <v>4535</v>
@@ -97542,7 +97540,7 @@
         <v>60</v>
       </c>
       <c r="T554" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U554" t="s">
         <v>60</v>
@@ -97817,25 +97815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="420e3a7f-c595-41db-8c1c-3e1f5a477a85">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED0043852220D64B8C02AE3539520262" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759936c4292ecbbf1a1a07440a8ca756">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="420e3a7f-c595-41db-8c1c-3e1f5a477a85" xmlns:ns3="00d742dd-1bc5-4727-881e-02108fc4a718" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f878bdbb43869cddb2ba28369d62fab3" ns2:_="" ns3:_="">
     <xsd:import namespace="420e3a7f-c595-41db-8c1c-3e1f5a477a85"/>
@@ -98060,8 +98039,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="420e3a7f-c595-41db-8c1c-3e1f5a477a85">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F5F753-7B6D-42E6-87EE-5B96EE287CF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC4E090-7F2C-461A-8F31-528434FDE697}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98069,5 +98067,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC4E090-7F2C-461A-8F31-528434FDE697}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F5F753-7B6D-42E6-87EE-5B96EE287CF6}"/>
 </file>